--- a/Files/docs/7_BillOfMaterials.xlsx
+++ b/Files/docs/7_BillOfMaterials.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24519"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="662" documentId="11_BC1BBCAD601B402ECA0C781470E50A8881319F8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FD1EEBDF-F2C8-4C1E-B09A-AD8DA83B281B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71200677-5BC1-460D-BD5D-295823CAA1A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="120" windowWidth="14355" windowHeight="4680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,68 +30,31 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={3237102C-0F57-4E27-9297-D4E7656EB113}</author>
-    <author>tc={E9B76445-7E4D-46A1-B486-7D4BE6A5D09A}</author>
-    <author>tc={E1BB3839-A3EE-40D7-8513-561DBB70E290}</author>
+    <author>Mary Margaret Arito</author>
     <author>tc={CFBDF55B-457F-4C23-B081-9ADDBD9A815D}</author>
-    <author>tc={337D1F20-B846-440C-BE0D-48761565AEA4}</author>
-    <author>tc={69B4B9B2-65D2-4665-B308-12D05EF88922}</author>
   </authors>
   <commentList>
-    <comment ref="A18" authorId="0" shapeId="0" xr:uid="{3237102C-0F57-4E27-9297-D4E7656EB113}">
+    <comment ref="A28" authorId="0" shapeId="0" xr:uid="{C70B92BA-E1FB-451E-BE40-417FAA881D71}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Mary Margaret Arito:
+Want to check with Joe before ordering these. Need to consider what type of voltage regulators to use if we have a plug in option</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="1" shapeId="0" xr:uid="{CFBDF55B-457F-4C23-B081-9ADDBD9A815D}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    ECE shop</t>
-      </text>
-    </comment>
-    <comment ref="A24" authorId="1" shapeId="0" xr:uid="{E9B76445-7E4D-46A1-B486-7D4BE6A5D09A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Mary Margaret Arito Updated the link for this one too.  not as clean looking as the other one but think it will do</t>
-      </text>
-    </comment>
-    <comment ref="A26" authorId="2" shapeId="0" xr:uid="{E1BB3839-A3EE-40D7-8513-561DBB70E290}">
-      <text>
-        <t xml:space="preserve">[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Mary Margaret Arito I changed the link for this but any 10uF cap would work if they have any in the shop
-Reply:
-    @Mitchell Allan Arndt they are out at the shop but not sure if they've been ordered yet. 
-Reply:
-    @Mary Margaret Arito gotcha.  Are there any caps that are close to 10uF in stock in the shop?
-Reply:
-    @Mitchell Allan Arndt the closest are 6.8uF and 22uF </t>
-      </text>
-    </comment>
-    <comment ref="A31" authorId="3" shapeId="0" xr:uid="{CFBDF55B-457F-4C23-B081-9ADDBD9A815D}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ECE Shop?</t>
-      </text>
-    </comment>
-    <comment ref="A32" authorId="4" shapeId="0" xr:uid="{337D1F20-B846-440C-BE0D-48761565AEA4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ECE Shop
-Reply:
-    (currently out of stock in ECE shop, on order)</t>
-      </text>
-    </comment>
-    <comment ref="A33" authorId="5" shapeId="0" xr:uid="{69B4B9B2-65D2-4665-B308-12D05EF88922}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    ECE Shop</t>
+    Going to talk to Joe/Wayne to see if they have these.</t>
       </text>
     </comment>
   </commentList>
@@ -99,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="203">
   <si>
     <t>ECE477 Bill of Materials v1.0</t>
   </si>
@@ -122,7 +85,7 @@
     <t>NOTE: Materials for one game board</t>
   </si>
   <si>
-    <t>Last Modified: 74 September 2021</t>
+    <t>Last Modified: 14 September 2021</t>
   </si>
   <si>
     <t>Game Console</t>
@@ -158,6 +121,9 @@
     <t>Supplier Part #</t>
   </si>
   <si>
+    <t>Ordered Qty</t>
+  </si>
+  <si>
     <t>ESP32 WROOM32</t>
   </si>
   <si>
@@ -182,6 +148,9 @@
     <t>https://www.adafruit.com/product/3320</t>
   </si>
   <si>
+    <t>(currently have 2)</t>
+  </si>
+  <si>
     <t>Rumble Motor</t>
   </si>
   <si>
@@ -272,6 +241,9 @@
     <t>https://cart.jlcpcb.com/quote?orderType=3</t>
   </si>
   <si>
+    <t>(ask in  lab)</t>
+  </si>
+  <si>
     <t>pin header (male) - Ships</t>
   </si>
   <si>
@@ -308,6 +280,9 @@
     <t>https://www.digikey.com/en/products/detail/oupiin/2141-2X03G00SB/13251454</t>
   </si>
   <si>
+    <t>Cost $30 for shipping, found similar in shop</t>
+  </si>
+  <si>
     <t>LEDs</t>
   </si>
   <si>
@@ -350,6 +325,9 @@
     <t>https://www.digikey.com/en/products/detail/avx-corporation/08053C104KAT2A/1116281</t>
   </si>
   <si>
+    <t>do we need these for testing?</t>
+  </si>
+  <si>
     <t>digitial mux</t>
   </si>
   <si>
@@ -425,6 +403,9 @@
     <t>https://www.digikey.com/en/products/detail/e-switch/4JBLK/81354</t>
   </si>
   <si>
+    <t>(using keypad)</t>
+  </si>
+  <si>
     <t>push buttons</t>
   </si>
   <si>
@@ -482,6 +463,9 @@
     <t>https://www.digikey.com/en/products/detail/w%C3%BCrth-elektronik/860020372001/5728733</t>
   </si>
   <si>
+    <t>(will use something similar from shop)</t>
+  </si>
+  <si>
     <t>LCD</t>
   </si>
   <si>
@@ -515,6 +499,9 @@
     <t>https://www.digikey.com/en/products/detail/texas-instruments/BQ24075QRGTRQ1/3074508</t>
   </si>
   <si>
+    <t>Want to ask about this in Lab</t>
+  </si>
+  <si>
     <t>battery babysitter/battery gauge IC</t>
   </si>
   <si>
@@ -530,6 +517,9 @@
     <t>https://www.digikey.com/en/products/detail/texas-instruments/BQ27441DRZT-G1A/4733013</t>
   </si>
   <si>
+    <t>n/a</t>
+  </si>
+  <si>
     <t>voltage regulator (buck, 3.3V ~1.2A)</t>
   </si>
   <si>
@@ -599,6 +589,9 @@
     <t>https://www.homedepot.com/p/Falken-Design-12-in-x-24-in-x-1-8-in-Thick-Acrylic-Non-Glare-Matte-P95-Sheet-Falken-Design-ACRYLIC-P95-1-8-1224/308669716</t>
   </si>
   <si>
+    <t>need to pick up from home depot</t>
+  </si>
+  <si>
     <t>Housing Unit</t>
   </si>
   <si>
@@ -614,7 +607,7 @@
     <t>Ordered/On the way</t>
   </si>
   <si>
-    <t>Limited Availability</t>
+    <t>Limited Availability (shop)</t>
   </si>
   <si>
     <t>OUT OF STOCK</t>
@@ -687,7 +680,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,8 +716,49 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,6 +798,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8CBAD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0CECE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -966,7 +1012,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1048,41 +1094,66 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="9" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1094,22 +1165,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1130,10 +1195,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Mary Margaret Arito" id="{2CFE9463-7787-4845-9EB4-1AD67A74F136}" userId="marito@purdue.edu" providerId="PeoplePicker"/>
-  <person displayName="Mitchell Allan Arndt" id="{93A4F707-7F13-4563-9101-61BF7DDF1991}" userId="arndt20@purdue.edu" providerId="PeoplePicker"/>
   <person displayName="Mary Margaret Arito" id="{555217B2-7E20-4FD6-BCF5-C13862682221}" userId="S::marito@purdue.edu::7dce26d1-c708-4212-91a7-5c2744f2b255" providerId="AD"/>
-  <person displayName="Mitchell Allan Arndt" id="{94985F12-873F-4511-980B-FFF01FA8845C}" userId="S::arndt20@purdue.edu::3b59c237-bffc-4547-8d19-5ea985f9a447" providerId="AD"/>
 </personList>
 </file>
 
@@ -1458,50 +1520,8 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A18" dT="2021-09-20T17:16:25.15" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{3237102C-0F57-4E27-9297-D4E7656EB113}">
-    <text>ECE shop</text>
-  </threadedComment>
-  <threadedComment ref="A24" dT="2021-09-20T18:14:35.66" personId="{94985F12-873F-4511-980B-FFF01FA8845C}" id="{E9B76445-7E4D-46A1-B486-7D4BE6A5D09A}">
-    <text>@Mary Margaret Arito Updated the link for this one too.  not as clean looking as the other one but think it will do</text>
-    <mentions>
-      <mention mentionpersonId="{2CFE9463-7787-4845-9EB4-1AD67A74F136}" mentionId="{247F08DD-B630-4EFA-8A99-127C3AFFD294}" startIndex="0" length="20"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2021-09-20T18:10:42.16" personId="{94985F12-873F-4511-980B-FFF01FA8845C}" id="{E1BB3839-A3EE-40D7-8513-561DBB70E290}">
-    <text>@Mary Margaret Arito I changed the link for this but any 10uF cap would work if they have any in the shop</text>
-    <mentions>
-      <mention mentionpersonId="{2CFE9463-7787-4845-9EB4-1AD67A74F136}" mentionId="{EFD5F80A-EEBD-41AD-9536-5374A09EA67E}" startIndex="0" length="20"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2021-09-20T18:13:52.52" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{ECDCDB9B-8F2C-4F32-8719-0EBFAF423187}" parentId="{E1BB3839-A3EE-40D7-8513-561DBB70E290}">
-    <text xml:space="preserve">@Mitchell Allan Arndt they are out at the shop but not sure if they've been ordered yet. </text>
-    <mentions>
-      <mention mentionpersonId="{93A4F707-7F13-4563-9101-61BF7DDF1991}" mentionId="{8AE31771-E4FB-4BE1-99FE-1C1CA89659CA}" startIndex="0" length="21"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2021-09-20T18:15:50.02" personId="{94985F12-873F-4511-980B-FFF01FA8845C}" id="{E1EBE070-8D6D-4091-9E3B-A5F41BC68220}" parentId="{E1BB3839-A3EE-40D7-8513-561DBB70E290}">
-    <text>@Mary Margaret Arito gotcha.  Are there any caps that are close to 10uF in stock in the shop?</text>
-    <mentions>
-      <mention mentionpersonId="{2CFE9463-7787-4845-9EB4-1AD67A74F136}" mentionId="{DBC1FEC3-97DD-4AD6-A062-E9CFF2BD2DA8}" startIndex="0" length="20"/>
-    </mentions>
-  </threadedComment>
-  <threadedComment ref="A26" dT="2021-09-21T17:57:20.43" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{BB93E74E-FFB8-4E29-8478-9E199BE31901}" parentId="{E1BB3839-A3EE-40D7-8513-561DBB70E290}">
-    <text xml:space="preserve">@Mitchell Allan Arndt the closest are 6.8uF and 22uF </text>
-    <mentions>
-      <mention mentionpersonId="{93A4F707-7F13-4563-9101-61BF7DDF1991}" mentionId="{2012FF08-7753-4DBF-94F2-DF755423CA12}" startIndex="0" length="21"/>
-    </mentions>
-  </threadedComment>
   <threadedComment ref="A31" dT="2021-09-17T21:58:15.81" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{CFBDF55B-457F-4C23-B081-9ADDBD9A815D}">
-    <text>ECE Shop?</text>
-  </threadedComment>
-  <threadedComment ref="A32" dT="2021-09-17T21:58:04.04" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{337D1F20-B846-440C-BE0D-48761565AEA4}">
-    <text>ECE Shop</text>
-  </threadedComment>
-  <threadedComment ref="A32" dT="2021-09-20T17:34:17.79" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{AA62DDED-6F01-4EC2-A617-F57BBA511080}" parentId="{337D1F20-B846-440C-BE0D-48761565AEA4}">
-    <text>(currently out of stock in ECE shop, on order)</text>
-  </threadedComment>
-  <threadedComment ref="A33" dT="2021-09-17T21:58:24.37" personId="{555217B2-7E20-4FD6-BCF5-C13862682221}" id="{69B4B9B2-65D2-4665-B308-12D05EF88922}">
-    <text>ECE Shop</text>
+    <text>Going to talk to Joe/Wayne to see if they have these.</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -1510,30 +1530,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F23" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5703125" customWidth="1"/>
     <col min="3" max="3" width="5.140625" style="27" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="10"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" customWidth="1"/>
-    <col min="8" max="8" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.85546875" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" customWidth="1"/>
     <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="12" max="12" width="39.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
@@ -1544,12 +1565,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:12">
       <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:12">
       <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
@@ -1557,12 +1578,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:12">
       <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1578,7 +1599,7 @@
       </c>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
@@ -1603,231 +1624,255 @@
       <c r="H8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="I8" s="76" t="s">
+      <c r="I8" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="77"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="J8" s="70"/>
+      <c r="L8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="47" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="13">
         <v>8.9499999999999993</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="79"/>
+      <c r="I9" s="75" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="76"/>
       <c r="K9" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="48" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="13">
         <v>2.36</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>32</v>
-      </c>
-      <c r="J10" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I10" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="J10" s="72"/>
       <c r="K10" s="9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D11" s="13">
         <v>1.85</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="68" t="s">
-        <v>38</v>
-      </c>
-      <c r="J11" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I11" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="72"/>
       <c r="K11" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="48" t="s">
+        <v>42</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" s="13">
         <v>7.99</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I12" s="71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" s="72"/>
       <c r="K12" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
+      </c>
+      <c r="L12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="48" t="s">
+        <v>48</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="13">
         <v>1.02</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I13" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="J13" s="72"/>
       <c r="K13" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>53</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D14" s="13">
         <v>8</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="69"/>
+        <v>56</v>
+      </c>
+      <c r="I14" s="71" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="72"/>
       <c r="K14" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
-      <c r="A15" s="49" t="s">
-        <v>57</v>
+        <v>58</v>
+      </c>
+      <c r="L14" s="67" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="48" t="s">
+        <v>60</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D15" s="13">
         <v>0.1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="J15" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I15" s="71" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="72"/>
       <c r="K15" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>66</v>
+      </c>
+      <c r="L15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="49" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="31">
@@ -1838,366 +1883,401 @@
         <v>0.42</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="68" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I16" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="72"/>
       <c r="K16" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
+      </c>
+      <c r="L16" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="48" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D17" s="13">
         <v>0.1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="71" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" s="72"/>
+      <c r="K17" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" s="95" customFormat="1">
+      <c r="A18" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="I17" s="68" t="s">
-        <v>75</v>
-      </c>
-      <c r="J17" s="69"/>
-      <c r="K17" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="D18" s="13">
+      <c r="D18" s="90">
         <v>0.1</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="57" t="s">
-        <v>81</v>
-      </c>
-      <c r="J18" s="58"/>
-      <c r="K18" s="9" t="s">
+      <c r="E18" s="88" t="s">
         <v>82</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>85</v>
+      </c>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93" t="s">
+        <v>86</v>
+      </c>
+      <c r="L18" s="94" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="47" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D19" s="13">
         <v>0.69</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I19" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I19" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="J19" s="72"/>
       <c r="K19" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
+      </c>
+      <c r="L19">
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="49" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="D20" s="13">
         <v>0.05</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="68" t="s">
-        <v>95</v>
-      </c>
-      <c r="J20" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I20" s="71" t="s">
+        <v>100</v>
+      </c>
+      <c r="J20" s="72"/>
       <c r="K20" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
+      </c>
+      <c r="L20">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="47" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D21" s="13">
         <v>1.23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I21" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="J21" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I21" s="71" t="s">
+        <v>105</v>
+      </c>
+      <c r="J21" s="72"/>
       <c r="K21" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="C22" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D22" s="13">
+        <v>106</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" s="55" customFormat="1">
+      <c r="A22" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="62"/>
+      <c r="C22" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="64">
         <v>0.17</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="68" t="s">
-        <v>106</v>
-      </c>
-      <c r="J22" s="69"/>
-      <c r="K22" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="73" t="s">
+        <v>111</v>
+      </c>
+      <c r="J22" s="74"/>
+      <c r="K22" s="65" t="s">
+        <v>112</v>
+      </c>
+      <c r="L22" s="66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" s="55" customFormat="1">
+      <c r="A23" s="62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="31" t="s">
-        <v>103</v>
-      </c>
-      <c r="D23" s="13">
+      <c r="D23" s="64">
         <v>0.6</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="68" t="s">
-        <v>111</v>
-      </c>
-      <c r="J23" s="69"/>
-      <c r="K23" s="9" t="s">
-        <v>112</v>
+      <c r="E23" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="H23" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I23" s="73" t="s">
+        <v>117</v>
+      </c>
+      <c r="J23" s="74"/>
+      <c r="K23" s="65" t="s">
+        <v>118</v>
+      </c>
+      <c r="L23" s="66" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:19">
-      <c r="A24" s="51" t="s">
-        <v>113</v>
+      <c r="A24" s="48" t="s">
+        <v>119</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D24" s="13">
         <v>1.5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="68" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I24" s="71" t="s">
+        <v>122</v>
+      </c>
+      <c r="J24" s="72"/>
       <c r="K24" s="9" t="s">
-        <v>117</v>
+        <v>123</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:19">
-      <c r="A25" s="1" t="s">
-        <v>118</v>
+      <c r="A25" s="48" t="s">
+        <v>124</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="13">
         <v>0.85</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="68" t="s">
-        <v>121</v>
-      </c>
-      <c r="J25" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I25" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="J25" s="72"/>
       <c r="K25" s="9" t="s">
-        <v>122</v>
+        <v>128</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:19">
-      <c r="A26" s="52" t="s">
-        <v>123</v>
+      <c r="A26" s="49" t="s">
+        <v>129</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26" s="13">
         <v>0.06</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="68" t="s">
-        <v>125</v>
-      </c>
-      <c r="J26" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I26" s="71" t="s">
+        <v>131</v>
+      </c>
+      <c r="J26" s="72"/>
       <c r="K26" s="9" t="s">
-        <v>126</v>
+        <v>132</v>
+      </c>
+      <c r="L26" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15" customHeight="1">
-      <c r="A27" s="61" t="s">
-        <v>127</v>
+      <c r="A27" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D27" s="13">
         <v>12.69</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" s="70" t="s">
-        <v>131</v>
-      </c>
-      <c r="J27" s="69"/>
+        <v>33</v>
+      </c>
+      <c r="I27" s="83" t="s">
+        <v>138</v>
+      </c>
+      <c r="J27" s="72"/>
       <c r="K27" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="L27" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="L27" s="56">
+        <v>2</v>
+      </c>
       <c r="M27" s="9"/>
       <c r="N27" s="9"/>
       <c r="O27" s="9"/>
@@ -2208,7 +2288,7 @@
     </row>
     <row r="28" spans="1:19" ht="15" customHeight="1">
       <c r="A28" s="19" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B28" s="19"/>
       <c r="C28" s="32">
@@ -2218,25 +2298,27 @@
         <v>3.02</v>
       </c>
       <c r="E28" s="19" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H28" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="73" t="s">
-        <v>136</v>
-      </c>
-      <c r="J28" s="74"/>
+        <v>33</v>
+      </c>
+      <c r="I28" s="86" t="s">
+        <v>143</v>
+      </c>
+      <c r="J28" s="87"/>
       <c r="K28" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="L28" s="9"/>
+        <v>144</v>
+      </c>
+      <c r="L28" s="57" t="s">
+        <v>145</v>
+      </c>
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
       <c r="O28" s="9"/>
@@ -2247,7 +2329,7 @@
     </row>
     <row r="29" spans="1:19">
       <c r="A29" s="19" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B29" s="19"/>
       <c r="C29" s="32">
@@ -2257,28 +2339,31 @@
         <v>3.1</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="F29" s="19" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="J29" s="72"/>
+        <v>33</v>
+      </c>
+      <c r="I29" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="J29" s="85"/>
       <c r="K29" s="9" t="s">
-        <v>142</v>
+        <v>150</v>
+      </c>
+      <c r="L29" s="58" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:19">
       <c r="A30" s="18" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="B30" s="16"/>
       <c r="C30" s="33">
@@ -2288,28 +2373,31 @@
         <v>7.31</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="F30" s="35" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G30" s="40" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="I30" s="62" t="s">
-        <v>147</v>
-      </c>
-      <c r="J30" s="63"/>
+        <v>33</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="78"/>
       <c r="K30" s="9" t="s">
-        <v>148</v>
+        <v>157</v>
+      </c>
+      <c r="L30" s="58" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:19">
       <c r="A31" s="21" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B31" s="21"/>
       <c r="C31" s="34">
@@ -2319,28 +2407,31 @@
         <v>0.75</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="F31" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G31" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="H31" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="I31" s="79">
+        <v>1769</v>
+      </c>
+      <c r="J31" s="80"/>
+      <c r="K31" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" s="58" t="s">
         <v>151</v>
-      </c>
-      <c r="G31" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="H31" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="64">
-        <v>1769</v>
-      </c>
-      <c r="J31" s="65"/>
-      <c r="K31" s="9" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="32" spans="1:19">
       <c r="A32" s="18" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B32" s="18"/>
       <c r="C32" s="33">
@@ -2350,28 +2441,31 @@
         <v>40</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="G32" s="40" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" s="66" t="s">
-        <v>158</v>
-      </c>
-      <c r="J32" s="67"/>
+        <v>33</v>
+      </c>
+      <c r="I32" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="J32" s="82"/>
       <c r="K32" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>168</v>
+      </c>
+      <c r="L32" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="46" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="B33" s="21"/>
       <c r="C33" s="34">
@@ -2381,28 +2475,31 @@
         <v>0.11</v>
       </c>
       <c r="E33" s="43" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F33" s="44" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="G33" s="45">
         <v>860010272005</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="64" t="s">
-        <v>162</v>
-      </c>
-      <c r="J33" s="65"/>
+        <v>33</v>
+      </c>
+      <c r="I33" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="J33" s="80"/>
       <c r="K33" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
-      <c r="A34" s="80" t="s">
-        <v>164</v>
+        <v>172</v>
+      </c>
+      <c r="L33" s="67" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" s="59" t="s">
+        <v>173</v>
       </c>
       <c r="B34" s="21"/>
       <c r="C34" s="34">
@@ -2413,15 +2510,18 @@
       <c r="F34" s="44"/>
       <c r="G34" s="45"/>
       <c r="H34" s="21"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
       <c r="K34" s="9" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
-      <c r="A35" s="50" t="s">
-        <v>166</v>
+        <v>174</v>
+      </c>
+      <c r="L34" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="51" t="s">
+        <v>176</v>
       </c>
       <c r="B35" s="18"/>
       <c r="C35" s="41">
@@ -2431,52 +2531,65 @@
         <v>12.99</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G35" s="42">
         <v>857842002521</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="I35" s="75">
+        <v>177</v>
+      </c>
+      <c r="I35" s="68">
         <v>7303</v>
       </c>
-      <c r="J35" s="75"/>
+      <c r="J35" s="68"/>
       <c r="K35" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
-      <c r="A38" s="53" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>178</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="51" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="50" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
-      <c r="A40" s="54" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" s="55" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
-      <c r="A42" s="56" t="s">
-        <v>173</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" s="52" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" s="53" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" s="54" t="s">
+        <v>183</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="I10:J10"/>
@@ -2493,16 +2606,6 @@
     <mergeCell ref="I21:J21"/>
     <mergeCell ref="I22:J22"/>
     <mergeCell ref="I9:J9"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="I28:J28"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K10" r:id="rId1" xr:uid="{72309D53-4F02-4667-B17A-9264DAE23708}"/>
@@ -2551,7 +2654,7 @@
   <sheetData>
     <row r="8" spans="4:6">
       <c r="D8" s="30" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8" s="13">
         <v>8.9499999999999993</v>
@@ -2563,7 +2666,7 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="13">
         <v>2.36</v>
@@ -2575,7 +2678,7 @@
     </row>
     <row r="10" spans="4:6">
       <c r="D10" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10" s="13">
         <v>1.85</v>
@@ -2587,7 +2690,7 @@
     </row>
     <row r="11" spans="4:6">
       <c r="D11" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11" s="13">
         <v>7.99</v>
@@ -2599,7 +2702,7 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="13">
         <v>1.02</v>
@@ -2611,7 +2714,7 @@
     </row>
     <row r="13" spans="4:6">
       <c r="D13" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E13" s="13">
         <v>8</v>
@@ -2623,7 +2726,7 @@
     </row>
     <row r="14" spans="4:6">
       <c r="D14" s="31" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E14" s="13">
         <v>0.1</v>
@@ -2648,7 +2751,7 @@
     </row>
     <row r="16" spans="4:6">
       <c r="D16" s="31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E16" s="13">
         <v>0.1</v>
@@ -2660,7 +2763,7 @@
     </row>
     <row r="17" spans="4:6">
       <c r="D17" s="31" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E17" s="13">
         <v>0.1</v>
@@ -2672,7 +2775,7 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" s="31" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E18" s="13">
         <v>0.69</v>
@@ -2684,7 +2787,7 @@
     </row>
     <row r="19" spans="4:6">
       <c r="D19" s="31" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E19" s="13">
         <v>0.05</v>
@@ -2696,7 +2799,7 @@
     </row>
     <row r="20" spans="4:6">
       <c r="D20" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="13">
         <v>1.23</v>
@@ -2708,7 +2811,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E21" s="13">
         <v>0.17</v>
@@ -2720,7 +2823,7 @@
     </row>
     <row r="22" spans="4:6">
       <c r="D22" s="31" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E22" s="13">
         <v>0.6</v>
@@ -2732,7 +2835,7 @@
     </row>
     <row r="23" spans="4:6">
       <c r="D23" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="13">
         <v>1.5</v>
@@ -2744,7 +2847,7 @@
     </row>
     <row r="24" spans="4:6">
       <c r="D24" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="13">
         <v>0.85</v>
@@ -2756,7 +2859,7 @@
     </row>
     <row r="25" spans="4:6">
       <c r="D25" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="13">
         <v>0.06</v>
@@ -2768,7 +2871,7 @@
     </row>
     <row r="26" spans="4:6">
       <c r="D26" s="31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E26" s="13">
         <v>12.69</v>
@@ -2884,13 +2987,13 @@
   <sheetData>
     <row r="3" spans="3:20">
       <c r="N3" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="O3" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="3:20">
@@ -2910,33 +3013,33 @@
     </row>
     <row r="7" spans="3:20">
       <c r="O7" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q7" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="R7" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="S7" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" spans="3:20">
       <c r="C8" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="N8" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P8" s="15">
         <f>16*3</f>
@@ -2954,12 +3057,12 @@
         <v>89.28</v>
       </c>
       <c r="T8" s="9" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="3:20">
       <c r="N9" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="O9">
         <v>24</v>
@@ -2979,12 +3082,12 @@
         <v>45.92</v>
       </c>
       <c r="T9" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10" spans="3:20">
       <c r="N10" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="O10">
         <v>60</v>
@@ -3004,25 +3107,25 @@
         <v>50.89</v>
       </c>
       <c r="T10" s="9" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="3:20">
       <c r="Q12" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="3:20">
       <c r="C14" s="9" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
